--- a/biology/Zoologie/Helen_Gaige/Helen_Gaige.xlsx
+++ b/biology/Zoologie/Helen_Gaige/Helen_Gaige.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helen Beulah Thompson Gaige est une zoologiste américaine, née le 24 novembre 1890 à Bad Axe  dans le Comté de Huron (Michigan) et morte le 24 octobre 1976 à Gainesville (Floride).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la fille d’Elizabeth (née McDonald) et de Charles E. Thompson. Elle étudie à l’université du Michigan où elle obtient son Bachelor of Arts (1909) et son Master of Arts (1910). Gaige devient assistante au musée de zoologie de l’université du Michigan en 1910 sous la tutelle d’Alexander Grant Ruthven (1882-1971). Lorsque celui-ci devient le directeur du musée en 1913, il donne la responsabilité des programmes de recherche en herpétologie à Gaige. Celle-ci est nommée assistante conservatrice du département des reptiles et des amphibiens en 1918, puis conservatrice en 1923. N’ayant pas le statut de professeur, comme Ruthven, elle doit superviser les étudiants de façon officieuse.
 Elle rencontre son mari, Frederick McMahon Gaige (1890-1976), en 1912 : ils participent tous deux à l’expédition Walker-Newcomb dans le Nevada. Ils se marient l’année suivante juste après le retour de Frederick Gaige d’un voyage scientifique dans les montagnes Santa Marta. Les époux Gaige entreprendront plusieurs missions scientifiques.
